--- a/phantich - thietke/cosodulieu.xlsx
+++ b/phantich - thietke/cosodulieu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Le Van Hung\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Le Van Hung\Documents\GitHub\do_an1-j2chool\phantich - thietke\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>nhan_vien</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>ma_nhan_vien</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>ngay_san_xuat</t>
   </si>
 </sst>
 </file>
@@ -442,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,6 +539,9 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -541,14 +550,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -597,7 +611,7 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.3">
@@ -605,7 +619,7 @@
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.3">
@@ -613,12 +627,15 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.3">
